--- a/prep_and_checklists/Revolution Beauty/Revolution Beauty_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Revolution Beauty/Revolution Beauty_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Revolution Beauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ADF77-9D29-1D4E-B05C-D4B5CA8DC636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4EA29-D783-F04D-B7E6-C31AE5F2D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30920" yWindow="-1460" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>Revolution Beauty 40 Guests 6:00 PM - 8:00 PM Tuesday, May 6, 2025</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>English peas</t>
-  </si>
-  <si>
     <t>Frozen peas</t>
   </si>
   <si>
@@ -215,12 +212,6 @@
     <t>Chives</t>
   </si>
   <si>
-    <t>Mini tart shells</t>
-  </si>
-  <si>
-    <t>Crimini mushrooms</t>
-  </si>
-  <si>
     <t>Beech mushrooms</t>
   </si>
   <si>
@@ -282,6 +273,24 @@
   </si>
   <si>
     <t>1/4 recipe</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*order cooked, 2lbs</t>
+  </si>
+  <si>
+    <t>1 lb</t>
+  </si>
+  <si>
+    <t>258g / 1 pc</t>
+  </si>
+  <si>
+    <t>* in-house</t>
+  </si>
+  <si>
+    <t>1 cs</t>
   </si>
 </sst>
 </file>
@@ -675,11 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -705,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -713,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -721,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -741,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -749,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -757,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -765,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -773,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -781,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -789,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -797,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -805,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -813,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -833,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -841,15 +851,15 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -857,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -874,10 +884,10 @@
     </row>
     <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -885,15 +895,15 @@
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -901,7 +911,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -909,7 +919,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -929,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -937,7 +947,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -945,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -953,7 +963,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -961,24 +971,36 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="88" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
@@ -994,7 +1016,9 @@
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1003,7 +1027,9 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1012,7 +1038,9 @@
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1049,9 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1030,7 +1060,9 @@
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1039,43 +1071,53 @@
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1126,9 @@
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1137,9 @@
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1102,7 +1148,9 @@
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1111,7 +1159,9 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1120,7 +1170,9 @@
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1129,25 +1181,31 @@
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1156,7 +1214,9 @@
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1165,25 +1225,31 @@
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -1192,7 +1258,9 @@
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1201,57 +1269,37 @@
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/prep_and_checklists/Revolution Beauty/Revolution Beauty_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Revolution Beauty/Revolution Beauty_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Revolution Beauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4EA29-D783-F04D-B7E6-C31AE5F2D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA09DAAB-33CB-E248-A130-CF6BBD7F7529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30920" yWindow="-1460" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30920" yWindow="-1460" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>Revolution Beauty 40 Guests 6:00 PM - 8:00 PM Tuesday, May 6, 2025</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>1/4 recipe</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>*order cooked, 2lbs</t>
@@ -689,7 +686,7 @@
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -983,10 +980,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1017,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
@@ -1028,7 +1028,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
@@ -1039,7 +1039,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
@@ -1050,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -1061,7 +1061,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>41</v>
@@ -1072,7 +1072,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
@@ -1083,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>34</v>
@@ -1094,7 +1094,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
@@ -1105,7 +1105,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
@@ -1116,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
@@ -1127,7 +1127,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
@@ -1138,7 +1138,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -1149,7 +1149,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
@@ -1160,7 +1160,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -1171,7 +1171,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
@@ -1182,7 +1182,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -1193,7 +1193,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -1204,7 +1204,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
@@ -1215,7 +1215,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>38</v>
@@ -1226,7 +1226,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>58</v>
@@ -1237,7 +1237,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>38</v>
@@ -1248,7 +1248,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
@@ -1259,7 +1259,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
@@ -1281,7 +1281,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>38</v>
@@ -1292,7 +1292,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>45</v>
@@ -1300,6 +1300,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>